--- a/data/output/county-climate-data.xlsx
+++ b/data/output/county-climate-data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="458">
   <si>
     <t>Kommun</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>KPI2: Klimatplan antagen år</t>
+  </si>
+  <si>
+    <t>Konsumtionsutsläpp (kg/person/år)</t>
   </si>
   <si>
     <t>Karlshamn</t>
@@ -1775,13 +1778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1803,13 +1806,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>85.09999999999999</v>
@@ -1821,18 +1827,21 @@
         <v>5.2</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>6011.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3">
         <v>-1.4</v>
@@ -1844,18 +1853,21 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>6165.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>4.8</v>
@@ -1867,18 +1879,21 @@
         <v>4.8</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>2023</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>5971.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1890,18 +1905,21 @@
         <v>6.1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>5.4</v>
@@ -1913,10 +1931,13 @@
         <v>6.8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>6169.9</v>
       </c>
     </row>
   </sheetData>
@@ -1930,13 +1951,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1958,13 +1979,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2">
         <v>6.5</v>
@@ -1976,18 +2000,21 @@
         <v>6.4</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>6239.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3">
         <v>2.2</v>
@@ -1999,18 +2026,21 @@
         <v>3.1</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>6424.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>5.3</v>
@@ -2022,18 +2052,21 @@
         <v>6.1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G4">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>6657.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5">
         <v>-4.5</v>
@@ -2045,18 +2078,21 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>6701.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6">
         <v>-6.2</v>
@@ -2068,18 +2104,21 @@
         <v>3.9</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G6">
         <v>2012</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6173.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>5.6</v>
@@ -2091,18 +2130,21 @@
         <v>5.5</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6223.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>10.3</v>
@@ -2114,18 +2156,21 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>6289.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9">
         <v>-2.4</v>
@@ -2137,18 +2182,21 @@
         <v>3.9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G9">
         <v>2015</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2160,18 +2208,21 @@
         <v>7.6</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>6627.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11">
         <v>-1.3</v>
@@ -2183,18 +2234,21 @@
         <v>4.7</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>6688.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>4.6</v>
@@ -2206,18 +2260,21 @@
         <v>8.4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G12">
         <v>2019</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>6605.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>-8.1</v>
@@ -2229,18 +2286,21 @@
         <v>5.5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>6267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <v>-0.7</v>
@@ -2252,18 +2312,21 @@
         <v>3.8</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>6722.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15">
         <v>-3.2</v>
@@ -2275,10 +2338,13 @@
         <v>6.8</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>7105</v>
       </c>
     </row>
   </sheetData>
@@ -2294,13 +2360,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2322,13 +2388,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2">
         <v>1.3</v>
@@ -2340,18 +2409,21 @@
         <v>4.6</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>5852.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3">
         <v>6.7</v>
@@ -2363,18 +2435,21 @@
         <v>7.1</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>5789.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4">
         <v>-11.6</v>
@@ -2386,18 +2461,21 @@
         <v>4.8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>5458.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5">
         <v>0.6</v>
@@ -2409,18 +2487,21 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>6894.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C6">
         <v>-2.4</v>
@@ -2432,18 +2513,21 @@
         <v>5.9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>5919.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7">
         <v>1.5</v>
@@ -2455,18 +2539,21 @@
         <v>6.3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G7">
         <v>2018</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>6386.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <v>-11.6</v>
@@ -2478,18 +2565,21 @@
         <v>5.6</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>6088.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9">
         <v>19.2</v>
@@ -2501,18 +2591,21 @@
         <v>7.3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G9">
         <v>2015</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>6602.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -2524,18 +2617,21 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>6171.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C11">
         <v>0.1</v>
@@ -2547,18 +2643,21 @@
         <v>6.3</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>6011.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12">
         <v>1.1</v>
@@ -2570,18 +2669,21 @@
         <v>6.4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>6164.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C13">
         <v>-1.7</v>
@@ -2593,18 +2695,21 @@
         <v>7.5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>2023</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>6072.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -2616,18 +2721,21 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>6198.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2639,18 +2747,21 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>6015.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16">
         <v>0.3</v>
@@ -2662,18 +2773,21 @@
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G16">
         <v>2020</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>6598.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17">
         <v>-3.3</v>
@@ -2685,18 +2799,21 @@
         <v>10.4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G17">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>6171.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -2708,18 +2825,21 @@
         <v>6.4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>6184.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19">
         <v>-0.9</v>
@@ -2731,18 +2851,21 @@
         <v>5.4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G19">
         <v>2021</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>5941.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20">
         <v>1.1</v>
@@ -2754,18 +2877,21 @@
         <v>6.4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G20">
         <v>2021</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>5974.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21">
         <v>0.2</v>
@@ -2777,18 +2903,21 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>6254.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C22">
         <v>0.4</v>
@@ -2800,18 +2929,21 @@
         <v>6.6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G22">
         <v>2022</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>6132.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2823,18 +2955,21 @@
         <v>6.6</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G23">
         <v>2017</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>5808.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24">
         <v>0.1</v>
@@ -2846,18 +2981,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G24">
         <v>2022</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>5848.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25">
         <v>2.6</v>
@@ -2869,18 +3007,21 @@
         <v>6.7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G25">
         <v>2022</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>6000.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C26">
         <v>4.6</v>
@@ -2892,18 +3033,21 @@
         <v>7.5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G26">
         <v>2021</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>5950.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C27">
         <v>-5.7</v>
@@ -2915,18 +3059,21 @@
         <v>2.9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G27">
         <v>2019</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>5948.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C28">
         <v>4.2</v>
@@ -2938,18 +3085,21 @@
         <v>7.3</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>6045.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C29">
         <v>-0.5</v>
@@ -2961,18 +3111,21 @@
         <v>8.4</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G29">
         <v>2021</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>6916.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C30">
         <v>0.3</v>
@@ -2984,18 +3137,21 @@
         <v>5.7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G30">
         <v>2020</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>6411.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C31">
         <v>-2.3</v>
@@ -3007,18 +3163,21 @@
         <v>6.3</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>6461.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C32">
         <v>1.9</v>
@@ -3030,18 +3189,21 @@
         <v>7.2</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G32">
         <v>2022</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>5651.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C33">
         <v>1.1</v>
@@ -3053,18 +3215,21 @@
         <v>3.3</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C34">
         <v>-0.8</v>
@@ -3076,10 +3241,13 @@
         <v>7.5</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>5512.2</v>
       </c>
     </row>
   </sheetData>
@@ -3110,13 +3278,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3138,13 +3306,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C2">
         <v>-0.3</v>
@@ -3156,18 +3327,21 @@
         <v>6.4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>5526.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C3">
         <v>1.3</v>
@@ -3179,18 +3353,21 @@
         <v>10.5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>8185.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C4">
         <v>7.4</v>
@@ -3202,18 +3379,21 @@
         <v>9.1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>6275.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C5">
         <v>-3.1</v>
@@ -3225,18 +3405,21 @@
         <v>6.7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G5">
         <v>2017</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>5779.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C6">
         <v>0.3</v>
@@ -3248,18 +3431,21 @@
         <v>6.9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6031.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C7">
         <v>0.3</v>
@@ -3271,18 +3457,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G7">
         <v>2023</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>5996.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C8">
         <v>9.6</v>
@@ -3294,18 +3483,21 @@
         <v>8.6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>7483.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C9">
         <v>1.9</v>
@@ -3317,18 +3509,21 @@
         <v>9.4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>6684.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C10">
         <v>2.7</v>
@@ -3340,18 +3535,21 @@
         <v>6.3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G10">
         <v>2020</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>6411.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C11">
         <v>0.1</v>
@@ -3363,18 +3561,21 @@
         <v>6.5</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>6183.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C12">
         <v>-1.6</v>
@@ -3386,18 +3587,21 @@
         <v>7.3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>6008.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C13">
         <v>0.8</v>
@@ -3409,18 +3613,21 @@
         <v>7.1</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>6075.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C14">
         <v>1.5</v>
@@ -3432,18 +3639,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G14">
         <v>2018</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>6010.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C15">
         <v>0.5</v>
@@ -3455,18 +3665,21 @@
         <v>9.4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>6657.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3478,18 +3691,21 @@
         <v>9.1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G16">
         <v>2019</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>6978.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C17">
         <v>5.6</v>
@@ -3501,18 +3717,21 @@
         <v>9.1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G17">
         <v>2020</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>6981.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C18">
         <v>-0</v>
@@ -3524,18 +3743,21 @@
         <v>11.3</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>6735.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C19">
         <v>-1.7</v>
@@ -3547,18 +3769,21 @@
         <v>7.7</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>5805.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20">
         <v>0.7</v>
@@ -3570,18 +3795,21 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G20">
         <v>2019</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>6055.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C21">
         <v>0.4</v>
@@ -3593,18 +3821,21 @@
         <v>8.699999999999999</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>6863.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C22">
         <v>0.6</v>
@@ -3616,18 +3847,21 @@
         <v>7.7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G22">
         <v>2022</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>6207.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C23">
         <v>2.6</v>
@@ -3639,18 +3873,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G23">
         <v>2023</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>5788.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C24">
         <v>0.7</v>
@@ -3662,18 +3899,21 @@
         <v>8.9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G24">
         <v>2019</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>6034.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25">
         <v>12.3</v>
@@ -3685,18 +3925,21 @@
         <v>8.5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G25">
         <v>2021</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>6794.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C26">
         <v>6.8</v>
@@ -3708,18 +3951,21 @@
         <v>9.699999999999999</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G26">
         <v>2020</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>6374.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C27">
         <v>2.1</v>
@@ -3731,10 +3977,13 @@
         <v>7.9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G27">
         <v>2022</v>
+      </c>
+      <c r="H27">
+        <v>6228</v>
       </c>
     </row>
   </sheetData>
@@ -3768,13 +4017,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3796,13 +4045,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2">
         <v>3.8</v>
@@ -3814,18 +4066,21 @@
         <v>7.4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>5961.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C3">
         <v>1.9</v>
@@ -3837,18 +4092,21 @@
         <v>6.6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>6102.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C4">
         <v>3.3</v>
@@ -3860,18 +4118,21 @@
         <v>7.9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G4">
         <v>2013</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>6087.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C5">
         <v>3.5</v>
@@ -3883,18 +4144,21 @@
         <v>6.8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>5768.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3906,18 +4170,21 @@
         <v>6.7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>5862.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C7">
         <v>8.9</v>
@@ -3929,18 +4196,21 @@
         <v>6.9</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6190.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C8">
         <v>2.4</v>
@@ -3952,18 +4222,21 @@
         <v>6.1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>6398.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C9">
         <v>0.9</v>
@@ -3975,18 +4248,21 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>6537.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C10">
         <v>1.4</v>
@@ -3998,10 +4274,13 @@
         <v>6.4</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>5846.1</v>
       </c>
     </row>
   </sheetData>
@@ -4018,13 +4297,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4046,13 +4325,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2">
         <v>-2.1</v>
@@ -4064,18 +4346,21 @@
         <v>7.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>6128.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4087,18 +4372,21 @@
         <v>7.3</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>6058.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C4">
         <v>5.6</v>
@@ -4110,18 +4398,21 @@
         <v>6.3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>6181.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4133,18 +4424,21 @@
         <v>9.6</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>6273.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C6">
         <v>-1.3</v>
@@ -4156,18 +4450,21 @@
         <v>8.1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C7">
         <v>2.9</v>
@@ -4179,18 +4476,21 @@
         <v>7.6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G7">
         <v>2022</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>6360.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C8">
         <v>1.8</v>
@@ -4202,18 +4502,21 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>6136.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -4225,10 +4528,13 @@
         <v>5.8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>6300.2</v>
       </c>
     </row>
   </sheetData>
@@ -4244,13 +4550,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4272,13 +4578,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2">
         <v>4.6</v>
@@ -4290,18 +4599,21 @@
         <v>6.3</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>6148.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C3">
         <v>7.9</v>
@@ -4313,18 +4625,21 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>6451.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C4">
         <v>-1.3</v>
@@ -4336,18 +4651,21 @@
         <v>4.8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>5901.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C5">
         <v>4.2</v>
@@ -4359,18 +4677,21 @@
         <v>7.1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>5927.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C6">
         <v>-8.199999999999999</v>
@@ -4382,18 +4703,21 @@
         <v>7.6</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>6226.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C7">
         <v>16.7</v>
@@ -4405,18 +4729,21 @@
         <v>2.4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G7">
         <v>2022</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>6389.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C8">
         <v>3.8</v>
@@ -4428,18 +4755,21 @@
         <v>7.1</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>6432.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C9">
         <v>1.5</v>
@@ -4451,18 +4781,21 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>6351.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C10">
         <v>5.8</v>
@@ -4474,18 +4807,21 @@
         <v>6.4</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>6153.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C11">
         <v>0.3</v>
@@ -4497,18 +4833,21 @@
         <v>5.6</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>5767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C12">
         <v>-2.6</v>
@@ -4520,18 +4859,21 @@
         <v>5.8</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>6768.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C13">
         <v>3.6</v>
@@ -4543,18 +4885,21 @@
         <v>6.2</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>6219.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -4566,18 +4911,21 @@
         <v>5.3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G14">
         <v>2018</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>6363.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C15">
         <v>10.7</v>
@@ -4589,18 +4937,21 @@
         <v>6.7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G15">
         <v>2018</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>5995.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C16">
         <v>3.6</v>
@@ -4612,18 +4963,21 @@
         <v>4.9</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>6675.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C17">
         <v>1.8</v>
@@ -4635,10 +4989,13 @@
         <v>4.7</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>6339.9</v>
       </c>
     </row>
   </sheetData>
@@ -4656,13 +5013,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4684,13 +5041,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C2">
         <v>-5.4</v>
@@ -4702,18 +5062,21 @@
         <v>6.2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C3">
         <v>-4.8</v>
@@ -4725,18 +5088,21 @@
         <v>3.7</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>6529.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C4">
         <v>7.4</v>
@@ -4748,18 +5114,21 @@
         <v>6.3</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6113.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C5">
         <v>1.3</v>
@@ -4771,18 +5140,21 @@
         <v>3.9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>6081.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C6">
         <v>1.1</v>
@@ -4794,18 +5166,21 @@
         <v>8.5</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>6118.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -4817,18 +5192,21 @@
         <v>10.2</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6011.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C8">
         <v>-0.6</v>
@@ -4840,18 +5218,21 @@
         <v>10.1</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>5986.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C9">
         <v>3.3</v>
@@ -4863,18 +5244,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>6176.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C10">
         <v>3.4</v>
@@ -4886,18 +5270,21 @@
         <v>1.8</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>6375.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C11">
         <v>0.8</v>
@@ -4909,18 +5296,21 @@
         <v>5.9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>6942.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C12">
         <v>3.9</v>
@@ -4932,18 +5322,21 @@
         <v>7.3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>6242.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C13">
         <v>-1.5</v>
@@ -4955,18 +5348,21 @@
         <v>5.7</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C14">
         <v>-0.3</v>
@@ -4978,18 +5374,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>6110.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C15">
         <v>2.1</v>
@@ -5001,18 +5400,21 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>6079.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C16">
         <v>4.2</v>
@@ -5024,10 +5426,13 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>6179.7</v>
       </c>
     </row>
   </sheetData>
@@ -5043,13 +5448,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5071,13 +5476,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2">
         <v>0.9</v>
@@ -5089,18 +5497,21 @@
         <v>7.2</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>6107.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C3">
         <v>2.2</v>
@@ -5112,18 +5523,21 @@
         <v>8.1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>6163.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C4">
         <v>-3.8</v>
@@ -5135,18 +5549,21 @@
         <v>6.2</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6071.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C5">
         <v>-1.4</v>
@@ -5158,18 +5575,21 @@
         <v>6.6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>6210.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C6">
         <v>-16.8</v>
@@ -5181,18 +5601,21 @@
         <v>7.5</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>5798.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C7">
         <v>7.5</v>
@@ -5204,18 +5627,21 @@
         <v>5.9</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6333.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C8">
         <v>29.1</v>
@@ -5227,10 +5653,13 @@
         <v>6.1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G8">
         <v>2021</v>
+      </c>
+      <c r="H8">
+        <v>6131.3</v>
       </c>
     </row>
   </sheetData>
@@ -5245,13 +5674,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5273,13 +5702,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C2">
         <v>-0.9</v>
@@ -5291,18 +5723,21 @@
         <v>7.7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G2">
         <v>2009</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>6176.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>2.6</v>
@@ -5314,18 +5749,21 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>6185.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C4">
         <v>0.6</v>
@@ -5337,18 +5775,21 @@
         <v>8.1</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6200.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C5">
         <v>1.9</v>
@@ -5360,18 +5801,21 @@
         <v>7.7</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>5957.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C6">
         <v>5.7</v>
@@ -5383,18 +5827,21 @@
         <v>6.7</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>6160.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C7">
         <v>0.8</v>
@@ -5406,18 +5853,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>6173.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C8">
         <v>0.7</v>
@@ -5429,18 +5879,21 @@
         <v>6.9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G8">
         <v>2019</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>6148.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C9">
         <v>-2.1</v>
@@ -5452,18 +5905,21 @@
         <v>8.5</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>6703.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C10">
         <v>2.1</v>
@@ -5475,18 +5931,21 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>6040.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C11">
         <v>14.6</v>
@@ -5498,10 +5957,13 @@
         <v>7.6</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G11">
         <v>2017</v>
+      </c>
+      <c r="H11">
+        <v>6397.4</v>
       </c>
     </row>
   </sheetData>
@@ -5517,13 +5979,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5545,13 +6007,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C2">
         <v>5.5</v>
@@ -5563,18 +6028,21 @@
         <v>7.8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>5889.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C3">
         <v>-4.9</v>
@@ -5586,18 +6054,21 @@
         <v>5.7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G3">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>6066.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C4">
         <v>0.1</v>
@@ -5609,18 +6080,21 @@
         <v>5.5</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6014.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -5632,18 +6106,21 @@
         <v>7.5</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>6010.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C6">
         <v>0.2</v>
@@ -5655,18 +6132,21 @@
         <v>6.9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C7">
         <v>1.4</v>
@@ -5678,18 +6158,21 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>6512.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C8">
         <v>-2.7</v>
@@ -5701,18 +6184,21 @@
         <v>5.5</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>5891.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C9">
         <v>0.9</v>
@@ -5724,18 +6210,21 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>5721.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C10">
         <v>-2</v>
@@ -5747,18 +6236,21 @@
         <v>5.5</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>5767.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C11">
         <v>1.5</v>
@@ -5770,18 +6262,21 @@
         <v>6.3</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>6103.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C12">
         <v>0.8</v>
@@ -5793,18 +6288,21 @@
         <v>4.7</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>6029.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C13">
         <v>1.7</v>
@@ -5816,18 +6314,21 @@
         <v>8.1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>6268.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C14">
         <v>-1.3</v>
@@ -5839,18 +6340,21 @@
         <v>5.8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G14">
         <v>2019</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>5959.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C15">
         <v>1.7</v>
@@ -5862,18 +6366,21 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>5999.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -5885,18 +6392,21 @@
         <v>7.4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G16">
         <v>2018</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>6153.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -5908,18 +6418,21 @@
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G17">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>6205.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C18">
         <v>0.9</v>
@@ -5931,18 +6444,21 @@
         <v>6.6</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>6340.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C19">
         <v>-0.1</v>
@@ -5954,18 +6470,21 @@
         <v>6.5</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>6141.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C20">
         <v>3.1</v>
@@ -5977,18 +6496,21 @@
         <v>8.9</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>6157.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C21">
         <v>-5.9</v>
@@ -6000,18 +6522,21 @@
         <v>6.3</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C22">
         <v>-0.7</v>
@@ -6023,18 +6548,21 @@
         <v>7.1</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>6077.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C23">
         <v>41.6</v>
@@ -6046,18 +6574,21 @@
         <v>6.8</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>6492.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C24">
         <v>-2.2</v>
@@ -6069,18 +6600,21 @@
         <v>5.8</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G24">
         <v>2022</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>6077.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C25">
         <v>2.1</v>
@@ -6092,18 +6626,21 @@
         <v>5.9</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>6018.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -6115,18 +6652,21 @@
         <v>5.5</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>5737.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -6138,18 +6678,21 @@
         <v>7.6</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>6009.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C28">
         <v>2.7</v>
@@ -6161,18 +6704,21 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G28">
         <v>2022</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>6112.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C29">
         <v>5.1</v>
@@ -6184,18 +6730,21 @@
         <v>7.6</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G29">
         <v>2018</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>6443.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C30">
         <v>-0.2</v>
@@ -6207,18 +6756,21 @@
         <v>7.8</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>6384.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C31">
         <v>-0.2</v>
@@ -6230,18 +6782,21 @@
         <v>6.3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G31">
         <v>2017</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>6113.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B32" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C32">
         <v>21.8</v>
@@ -6253,18 +6808,21 @@
         <v>6</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G32">
         <v>2021</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>6036.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B33" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C33">
         <v>-1.2</v>
@@ -6276,18 +6834,21 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G33">
         <v>2018</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>6663.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B34" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C34">
         <v>66.90000000000001</v>
@@ -6299,18 +6860,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>6323.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C35">
         <v>7.4</v>
@@ -6322,18 +6886,21 @@
         <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G35">
         <v>2021</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>6236.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C36">
         <v>10.5</v>
@@ -6345,18 +6912,21 @@
         <v>7.1</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>6070.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B37" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C37">
         <v>3.3</v>
@@ -6368,18 +6938,21 @@
         <v>7.7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G37">
         <v>2020</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>6397.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C38">
         <v>-0.9</v>
@@ -6391,18 +6964,21 @@
         <v>7.9</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C39">
         <v>13.2</v>
@@ -6414,18 +6990,21 @@
         <v>6.3</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>5926.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C40">
         <v>2.1</v>
@@ -6437,18 +7016,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>6612.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C41">
         <v>0.7</v>
@@ -6460,18 +7042,21 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>5934.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B42" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C42">
         <v>0.1</v>
@@ -6483,18 +7068,21 @@
         <v>7.7</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>6070.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C43">
         <v>1.4</v>
@@ -6506,18 +7094,21 @@
         <v>5.8</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G43">
         <v>2022</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>5912.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C44">
         <v>11.9</v>
@@ -6529,18 +7120,21 @@
         <v>8.4</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G44">
         <v>2022</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>6099.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -6552,18 +7146,21 @@
         <v>5.4</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>5938.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C46">
         <v>0.2</v>
@@ -6575,18 +7172,21 @@
         <v>8.1</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G46">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>5938.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C47">
         <v>3.8</v>
@@ -6598,18 +7198,21 @@
         <v>6.9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G47">
         <v>2022</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C48">
         <v>1.3</v>
@@ -6621,18 +7224,21 @@
         <v>7.4</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>5657.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C49">
         <v>-0.1</v>
@@ -6644,18 +7250,21 @@
         <v>4.7</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G49">
         <v>2017</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>5851.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C50">
         <v>-8.1</v>
@@ -6667,10 +7276,13 @@
         <v>7.7</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>5835</v>
       </c>
     </row>
   </sheetData>
@@ -6704,13 +7316,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6732,13 +7344,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>3.6</v>
@@ -6750,18 +7365,21 @@
         <v>6.4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>6.1</v>
@@ -6773,18 +7391,21 @@
         <v>6.9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>6102.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>1.4</v>
@@ -6796,18 +7417,21 @@
         <v>7.3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>2012</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>6238.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>-2.3</v>
@@ -6819,18 +7443,21 @@
         <v>7.9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>5892.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>-2.6</v>
@@ -6842,18 +7469,21 @@
         <v>7.3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6114.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>4.8</v>
@@ -6865,18 +7495,21 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6495.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>-0.3</v>
@@ -6888,18 +7521,21 @@
         <v>6.3</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>6222.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>1.8</v>
@@ -6911,18 +7547,21 @@
         <v>6.8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>6838.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>-2.1</v>
@@ -6934,18 +7573,21 @@
         <v>7.6</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>6031.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>-0</v>
@@ -6957,18 +7599,21 @@
         <v>6.6</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>5669.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>-0.4</v>
@@ -6980,18 +7625,21 @@
         <v>6.7</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>6586.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>23.5</v>
@@ -7003,18 +7651,21 @@
         <v>7.1</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>6344.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -7026,18 +7677,21 @@
         <v>8.6</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>6320.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>0.3</v>
@@ -7049,18 +7703,21 @@
         <v>6.9</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>2013</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>6068.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -7072,10 +7729,13 @@
         <v>5.1</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>5794.9</v>
       </c>
     </row>
   </sheetData>
@@ -7091,13 +7751,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7119,13 +7779,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C2">
         <v>13.1</v>
@@ -7137,18 +7800,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>6451.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C3">
         <v>2.9</v>
@@ -7160,18 +7826,21 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C4">
         <v>3.5</v>
@@ -7183,18 +7852,21 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6134.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -7206,18 +7878,21 @@
         <v>2.3</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>6045.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -7229,18 +7904,21 @@
         <v>6.7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6230.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C7">
         <v>8.4</v>
@@ -7252,18 +7930,21 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6108.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C8">
         <v>-3.1</v>
@@ -7275,18 +7956,21 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>6576.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C9">
         <v>0.9</v>
@@ -7298,18 +7982,21 @@
         <v>8.800000000000001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>6034.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C10">
         <v>8.199999999999999</v>
@@ -7321,18 +8008,21 @@
         <v>6.3</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>6139.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C11">
         <v>-1.4</v>
@@ -7344,18 +8034,21 @@
         <v>6.2</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>6088.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C12">
         <v>1.1</v>
@@ -7367,18 +8060,21 @@
         <v>7.8</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>6066.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C13">
         <v>19.1</v>
@@ -7390,10 +8086,13 @@
         <v>6.8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G13">
         <v>2016</v>
+      </c>
+      <c r="H13">
+        <v>6087.2</v>
       </c>
     </row>
   </sheetData>
@@ -7410,13 +8109,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7438,13 +8137,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C2">
         <v>16.2</v>
@@ -7456,18 +8158,21 @@
         <v>6.8</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>6151.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C3">
         <v>-0.4</v>
@@ -7479,18 +8184,21 @@
         <v>6.6</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>6127.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C4">
         <v>1.1</v>
@@ -7502,18 +8210,21 @@
         <v>7.7</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6124.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C5">
         <v>4.5</v>
@@ -7525,18 +8236,21 @@
         <v>7.8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>6282.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7548,18 +8262,21 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6184.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C7">
         <v>3.3</v>
@@ -7571,18 +8288,21 @@
         <v>6.1</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6026.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C8">
         <v>6.2</v>
@@ -7594,18 +8314,21 @@
         <v>6.9</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>5986.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C9">
         <v>1.2</v>
@@ -7617,18 +8340,21 @@
         <v>7.9</v>
       </c>
       <c r="F9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>6070.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C10">
         <v>0.3</v>
@@ -7640,18 +8366,21 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C11">
         <v>4.5</v>
@@ -7663,18 +8392,21 @@
         <v>6.3</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C12">
         <v>-1.1</v>
@@ -7686,18 +8418,21 @@
         <v>6.1</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>6152.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C13">
         <v>1.5</v>
@@ -7709,18 +8444,21 @@
         <v>7.8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>5883.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C14">
         <v>0.1</v>
@@ -7732,10 +8470,13 @@
         <v>7.1</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>6225.3</v>
       </c>
     </row>
   </sheetData>
@@ -7750,13 +8491,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7778,13 +8519,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>-38.7</v>
@@ -7796,10 +8540,13 @@
         <v>6.6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>2022</v>
+      </c>
+      <c r="H2">
+        <v>6204.3</v>
       </c>
     </row>
   </sheetData>
@@ -7812,13 +8559,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7840,13 +8587,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>4.1</v>
@@ -7858,18 +8608,21 @@
         <v>4.6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>6108.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>4.3</v>
@@ -7881,18 +8634,21 @@
         <v>6.1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>6330.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -7904,18 +8660,21 @@
         <v>5.6</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6425.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>1.3</v>
@@ -7927,18 +8686,21 @@
         <v>6.8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>2017</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>6218.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>-4.7</v>
@@ -7950,18 +8712,21 @@
         <v>3.8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>6353.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -7973,18 +8738,21 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6042.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>-3</v>
@@ -7996,18 +8764,21 @@
         <v>6.5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>2022</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>5936.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>-4.6</v>
@@ -8019,18 +8790,21 @@
         <v>6.4</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>6103.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>-10.1</v>
@@ -8042,18 +8816,21 @@
         <v>4.7</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>-3.3</v>
@@ -8065,10 +8842,13 @@
         <v>6.1</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>6077.3</v>
       </c>
     </row>
   </sheetData>
@@ -8084,13 +8864,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8112,13 +8892,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>4.3</v>
@@ -8130,18 +8913,21 @@
         <v>6.6</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>5960.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>5.5</v>
@@ -8153,18 +8939,21 @@
         <v>6.7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>6215.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>12.1</v>
@@ -8176,18 +8965,21 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>5849.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>0.2</v>
@@ -8199,18 +8991,21 @@
         <v>8.1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>6550.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>-1.9</v>
@@ -8222,18 +9017,21 @@
         <v>6.1</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>6146.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>-0.8</v>
@@ -8245,10 +9043,13 @@
         <v>7.1</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6109</v>
       </c>
     </row>
   </sheetData>
@@ -8262,13 +9063,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8290,13 +9091,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>-1.2</v>
@@ -8308,18 +9112,21 @@
         <v>8.1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>6488.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>-5.4</v>
@@ -8331,18 +9138,21 @@
         <v>7.1</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>6315.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>-6.6</v>
@@ -8354,18 +9164,21 @@
         <v>4.7</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>-0.6</v>
@@ -8377,18 +9190,21 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>6107.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -8400,18 +9216,21 @@
         <v>5.1</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>6312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>5.1</v>
@@ -8423,18 +9242,21 @@
         <v>2.4</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6304.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>-1.6</v>
@@ -8446,18 +9268,21 @@
         <v>7.5</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>6697.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -8469,10 +9294,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>2019</v>
+      </c>
+      <c r="H9">
+        <v>6318.8</v>
       </c>
     </row>
   </sheetData>
@@ -8486,13 +9314,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8514,13 +9342,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>0.2</v>
@@ -8532,18 +9363,21 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>6113.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>2.4</v>
@@ -8555,18 +9389,21 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>6054.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>1.4</v>
@@ -8578,18 +9415,21 @@
         <v>7.4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>5973.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>-5.9</v>
@@ -8601,18 +9441,21 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>5800.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>3.6</v>
@@ -8624,18 +9467,21 @@
         <v>7.8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6088.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>1.6</v>
@@ -8647,18 +9493,21 @@
         <v>6.1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7">
         <v>2022</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>6166.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>1.1</v>
@@ -8670,18 +9519,21 @@
         <v>7.8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>6191.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>2.1</v>
@@ -8693,18 +9545,21 @@
         <v>6.3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G9">
         <v>2016</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>5824.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>0.9</v>
@@ -8716,18 +9571,21 @@
         <v>6.4</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>-0.4</v>
@@ -8739,18 +9597,21 @@
         <v>7.1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>2022</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>5902.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>0.3</v>
@@ -8762,18 +9623,21 @@
         <v>7.4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>6103.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>4.3</v>
@@ -8785,18 +9649,21 @@
         <v>6.4</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>5926.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>0.7</v>
@@ -8808,10 +9675,13 @@
         <v>5.9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14">
         <v>2023</v>
+      </c>
+      <c r="H14">
+        <v>6017.5</v>
       </c>
     </row>
   </sheetData>
@@ -8832,13 +9702,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8860,13 +9730,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>-3.7</v>
@@ -8878,18 +9751,21 @@
         <v>7.5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>6336.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>1.1</v>
@@ -8901,18 +9777,21 @@
         <v>5.3</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>5993.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>4.1</v>
@@ -8924,18 +9803,21 @@
         <v>4.8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>5728.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>6.5</v>
@@ -8947,18 +9829,21 @@
         <v>4.8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>5669.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>1.9</v>
@@ -8970,18 +9855,21 @@
         <v>5.7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6169.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>2.6</v>
@@ -8993,18 +9881,21 @@
         <v>6.5</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6080.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>1.5</v>
@@ -9016,18 +9907,21 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>6056.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9">
         <v>7.7</v>
@@ -9039,18 +9933,21 @@
         <v>6.3</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>5901.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <v>-4.4</v>
@@ -9062,18 +9959,21 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>5958.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <v>5.5</v>
@@ -9085,18 +9985,21 @@
         <v>6.2</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12">
         <v>2.8</v>
@@ -9108,18 +10011,21 @@
         <v>5.5</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>6024.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>7.1</v>
@@ -9131,10 +10037,13 @@
         <v>5.8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G13">
         <v>2021</v>
+      </c>
+      <c r="H13">
+        <v>6020.3</v>
       </c>
     </row>
   </sheetData>
@@ -9149,13 +10058,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9177,13 +10086,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2">
         <v>0.4</v>
@@ -9195,18 +10107,21 @@
         <v>8.5</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>6030.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>5.9</v>
@@ -9218,18 +10133,21 @@
         <v>7.9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>5777.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -9241,18 +10159,21 @@
         <v>5.9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>6147.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>-0.5</v>
@@ -9264,18 +10185,21 @@
         <v>6.6</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>6465.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6">
         <v>1.4</v>
@@ -9287,18 +10211,21 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6139.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7">
         <v>2.1</v>
@@ -9310,18 +10237,21 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2022</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>5849.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8">
         <v>-0.6</v>
@@ -9333,18 +10263,21 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8">
         <v>2019</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>6123.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>2.7</v>
@@ -9356,10 +10289,13 @@
         <v>7.1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G9">
         <v>2020</v>
+      </c>
+      <c r="H9">
+        <v>5705.8</v>
       </c>
     </row>
   </sheetData>
